--- a/Datos/Anuario2024/110402_InfraccionesDenunciadas.xlsx
+++ b/Datos/Anuario2024/110402_InfraccionesDenunciadas.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="29" r:id="rId1"/>
+    <sheet name="1" sheetId="63" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -124,90 +130,209 @@
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Policía Local</t>
+  </si>
+  <si>
+    <t>Otras</t>
+  </si>
+  <si>
+    <t>Fuente: Policía Local. Ayuntamiento de València. EYSA (Servicio ORA València).</t>
+  </si>
+  <si>
+    <t>Ordenanza Reguladora de Aparcamiento (ORA)</t>
+  </si>
+  <si>
+    <t>Jefatura Provincial de Tráfico</t>
+  </si>
+  <si>
+    <t>Relacionadas con paradas o estacionamientos</t>
+  </si>
+  <si>
+    <t>Relacionadas con el límite de velocidad</t>
+  </si>
+  <si>
+    <t>Relacionadas con marcas viales</t>
+  </si>
+  <si>
+    <t>Conducir sin la obligatoria atención permanente a la conducción</t>
+  </si>
+  <si>
+    <t>Relacionadas con otras señales de prohibición o restricción</t>
+  </si>
+  <si>
+    <t>Relacionadas con el uso del cinturón de seguridad o sistema de retención homologado</t>
+  </si>
+  <si>
+    <t>Circular por vías reservadas para determinados vehículos</t>
+  </si>
+  <si>
+    <t>Relacionadas con órdenes del agente de circulación</t>
+  </si>
+  <si>
+    <t>Relacionadas con el uso del casco de protección homologado</t>
+  </si>
+  <si>
+    <t>Relacionadas con señales de obligación</t>
+  </si>
+  <si>
+    <t>Relacionadas con el comportamiento en caso de emergencia</t>
+  </si>
+  <si>
+    <t>Relacionadas con la circulación de patines, monopatines y aparatos similares sin motor</t>
+  </si>
+  <si>
+    <t>Relacionadas con los cambios de sentido</t>
+  </si>
+  <si>
+    <t>Relacionadas con señales de prioridad</t>
+  </si>
+  <si>
+    <t>Relacionadas con el transporte de personas</t>
+  </si>
+  <si>
+    <t>Conducir superando la tasa de alcohol permitida o negarse a someterse a las pruebas</t>
+  </si>
+  <si>
+    <t>Conducir con presencia de drogas en el organismo o negarse a someterse a las pruebas</t>
+  </si>
+  <si>
+    <t>Relacionadas con señales de prohibición de entrada o restricción de paso</t>
+  </si>
+  <si>
+    <t>Relacionadas con la prioridad de paso de los peatones</t>
+  </si>
+  <si>
+    <t>Comportamiento negligente o temerario de conductores o usuarios</t>
+  </si>
+  <si>
+    <t>Relacionadas con la circulación de las personas viandantes</t>
+  </si>
+  <si>
+    <t>Relacionadas con la disposición o dimensiones de la carga</t>
+  </si>
+  <si>
+    <t>Relacionadas con cambios de dirección</t>
+  </si>
+  <si>
+    <t>Relacionadas con la utilización del alumbrado</t>
+  </si>
+  <si>
+    <t>Relacionadas con las zonas de circulación de bicicletas y velocidades</t>
+  </si>
+  <si>
+    <t>INFRACCIONES DENUNCIADAS</t>
+  </si>
+  <si>
+    <t>1. Infracciones denunciadas según tipo. 2023</t>
+  </si>
+  <si>
+    <t>Relacionadas con vehículos de movilidad personal (VMP)</t>
+  </si>
+  <si>
+    <t>Relacionadas con semáforos para peatones</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Relacionadas con semáforos para vehículos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -236,70 +361,71 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="4">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Normal 10" xfId="12"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="5"/>
     <cellStyle name="Porcentaje" xfId="4" builtinId="5"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
     <cellStyle name="Porcentaje 2" xfId="8"/>
     <cellStyle name="style1595592910070" xfId="9"/>
+    <cellStyle name="style1595592910101" xfId="11"/>
     <cellStyle name="style1595592910148" xfId="10"/>
-    <cellStyle name="style1595592910101" xfId="11"/>
-    <cellStyle name="Normal 10" xfId="12"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -368,13 +494,26 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2032,8 +2171,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13721,7 +13860,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17516,8 +17655,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19699,8 +19838,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20696,565 +20835,473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja27">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="40.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>INFRACCIONES DENUNCIADAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="69" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.5703125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.5703125" customWidth="1" style="1" min="4" max="16384"/>
+    <col min="1" max="1" width="69" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>1. Infracciones denunciadas según tipo. 2023</t>
-        </is>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="14" t="inlineStr">
-        <is>
-          <t>Jefatura Provincial de Tráfico</t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="n">
-        <v>18648</v>
-      </c>
-      <c r="C4" s="19" t="n">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15" t="inlineStr">
-        <is>
-          <t>Policía Local</t>
-        </is>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B4" s="9">
+        <v>18648</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
         <v>168187</v>
       </c>
       <c r="C5" s="16">
         <f>B5/B$5</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con paradas o estacionamientos</t>
-        </is>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>98563</v>
       </c>
       <c r="C6" s="10">
-        <f>B6/B$5</f>
-        <v/>
+        <f t="shared" ref="C6:C35" si="0">B6/B$5</f>
+        <v>0.58603221414259132</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con el límite de velocidad</t>
-        </is>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="6">
         <v>44458</v>
       </c>
       <c r="C7" s="8">
-        <f>B7/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.26433672043618117</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>Relacionadas con marcas viales</t>
-        </is>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="7">
         <v>4838</v>
       </c>
       <c r="C8" s="10">
-        <f>B8/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.8765600195021019E-2</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con semáforos para vehículos</t>
-        </is>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="6">
         <v>4048</v>
       </c>
       <c r="C9" s="8">
-        <f>B9/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.4068447620803034E-2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>Conducir sin la obligatoria atención permanente a la conducción</t>
-        </is>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="7">
         <v>3625</v>
       </c>
       <c r="C10" s="10">
-        <f>B10/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.1553389976633152E-2</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con vehículos de movilidad personal (VMP)</t>
-        </is>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="6">
         <v>3263</v>
       </c>
       <c r="C11" s="8">
-        <f>B11/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.9401023860345923E-2</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>Conducir superando la tasa de alcohol permitida o negarse a someterse a las pruebas</t>
-        </is>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>1774</v>
       </c>
       <c r="C12" s="10">
-        <f>B12/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.0547783122357851E-2</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Conducir con presencia de drogas en el organismo o negarse a someterse a las pruebas</t>
-        </is>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="6">
         <v>1202</v>
       </c>
       <c r="C13" s="8">
-        <f>B13/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.1468068281139449E-3</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con otras señales de prohibición o restricción</t>
-        </is>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="7">
         <v>1168</v>
       </c>
       <c r="C14" s="10">
-        <f>B14/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.9446508945400064E-3</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con el uso del cinturón de seguridad o sistema de retención homologado</t>
-        </is>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="6">
         <v>925</v>
       </c>
       <c r="C15" s="8">
-        <f>B15/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.4998305457615634E-3</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con señales de prohibición de entrada o restricción de paso</t>
-        </is>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="7">
         <v>862</v>
       </c>
       <c r="C16" s="10">
-        <f>B16/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.125247492374559E-3</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con la prioridad de paso de los peatones</t>
-        </is>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="6">
         <v>595</v>
       </c>
       <c r="C17" s="8">
-        <f>B17/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>3.5377288375439244E-3</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>Comportamiento negligente o temerario de conductores o usuarios</t>
-        </is>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="7">
         <v>481</v>
       </c>
       <c r="C18" s="10">
-        <f>B18/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.8599118837960126E-3</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Circular por vías reservadas para determinados vehículos</t>
-        </is>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="6">
         <v>302</v>
       </c>
       <c r="C19" s="8">
-        <f>B19/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.7956203511567482E-3</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con órdenes del agente de circulación</t>
-        </is>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>280</v>
       </c>
       <c r="C20" s="10">
-        <f>B20/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.6648135706089056E-3</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con las zonas de circulación de bicicletas y velocidades</t>
-        </is>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>31</v>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B21" s="6">
         <v>268</v>
       </c>
       <c r="C21" s="8">
-        <f>B21/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.5934644175828096E-3</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con el uso del casco de protección homologado</t>
-        </is>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="7">
         <v>181</v>
       </c>
       <c r="C22" s="10">
-        <f>B22/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.0761830581436139E-3</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con el comportamiento en caso de emergencia</t>
-        </is>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
       </c>
-      <c r="B23" s="6" t="n">
+      <c r="B23" s="6">
         <v>176</v>
       </c>
       <c r="C23" s="8">
-        <f>B23/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.0464542443827407E-3</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con cambios de dirección</t>
-        </is>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="7">
         <v>122</v>
       </c>
       <c r="C24" s="10">
-        <f>B24/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7.2538305576530884E-4</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con la circulación de las personas viandantes</t>
-        </is>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
       </c>
-      <c r="B25" s="6" t="n">
+      <c r="B25" s="6">
         <v>115</v>
       </c>
       <c r="C25" s="8">
-        <f>B25/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.8376271650008624E-4</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con señales de prioridad</t>
-        </is>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>20</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>115</v>
       </c>
       <c r="C26" s="10">
-        <f>B26/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.8376271650008624E-4</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con señales de obligación</t>
-        </is>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
       </c>
-      <c r="B27" s="6" t="n">
+      <c r="B27" s="6">
         <v>109</v>
       </c>
       <c r="C27" s="8">
-        <f>B27/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.4808813998703824E-4</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con el transporte de personas</t>
-        </is>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>21</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="7">
         <v>105</v>
       </c>
       <c r="C28" s="10">
-        <f>B28/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.2430508897833958E-4</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con la disposición o dimensiones de la carga</t>
-        </is>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
       </c>
-      <c r="B29" s="6" t="n">
+      <c r="B29" s="6">
         <v>102</v>
       </c>
       <c r="C29" s="8">
-        <f>B29/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.0646780072181564E-4</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con la circulación de patines, monopatines y aparatos similares sin motor</t>
-        </is>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>18</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="7">
         <v>101</v>
       </c>
       <c r="C30" s="10">
-        <f>B30/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6.0052203796964092E-4</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con los cambios de sentido</t>
-        </is>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>19</v>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B31" s="6">
         <v>95</v>
       </c>
       <c r="C31" s="8">
-        <f>B31/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>5.6484746145659293E-4</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>Relacionadas con semáforos para peatones</t>
-        </is>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>35</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="7">
         <v>45</v>
       </c>
       <c r="C32" s="10">
-        <f>B32/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.6755932384785983E-4</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>Relacionadas con la utilización del alumbrado</t>
-        </is>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>30</v>
       </c>
-      <c r="B33" s="6" t="n">
+      <c r="B33" s="6">
         <v>40</v>
       </c>
       <c r="C33" s="8">
-        <f>B33/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2.378305100869865E-4</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>Otras</t>
-        </is>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>3</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="7">
         <v>222</v>
       </c>
       <c r="C34" s="10">
-        <f>B34/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.3199593309827751E-3</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="5" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>36</v>
       </c>
-      <c r="B35" s="6" t="n">
+      <c r="B35" s="6">
         <v>7</v>
       </c>
       <c r="C35" s="8">
-        <f>B35/B$5</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4.1620339265222637E-5</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="17" t="inlineStr">
-        <is>
-          <t>Ordenanza Reguladora de Aparcamiento (ORA)</t>
-        </is>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>5</v>
       </c>
-      <c r="B36" s="17" t="n">
+      <c r="B36" s="9">
         <v>190878</v>
       </c>
       <c r="C36" s="18">
         <f>B36/B36</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>Fuente: Policía Local. Ayuntamiento de València. EYSA (Servicio ORA València).</t>
-        </is>
+    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="B37" s="3" t="n"/>
+      <c r="B37" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>